--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -12,15 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
-  <si>
-    <t>When files are &gt; 15, webserver is not responding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>Not able to upload .jpeg</t>
   </si>
@@ -97,9 +93,6 @@
     <t>2nd Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple person uploading </t>
-  </si>
-  <si>
     <t>Publish development/production environment</t>
   </si>
   <si>
@@ -121,7 +114,27 @@
     <t>failed</t>
   </si>
   <si>
-    <t>change the name to "Hound Dog by TeamFotog"</t>
+    <t>Progress bar</t>
+  </si>
+  <si>
+    <t>When files are &gt;1000, webserver is not responding</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Multiple person uploading - user Registration</t>
+  </si>
+  <si>
+    <t>* Change the name to "Houndog by TeamFotog"
+* Change name from ImageProcessing to FaceDetection application.
+* Copy reserved company name(San Research, Sanresearch69@gmail.com)</t>
+  </si>
+  <si>
+    <t>Change backgroud to faceDetection, PhotoGrapher and Athelte pages</t>
   </si>
 </sst>
 </file>
@@ -191,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,6 +229,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,52 +549,52 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -587,24 +602,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -612,22 +627,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -635,24 +652,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -660,22 +677,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -683,13 +702,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -701,16 +720,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43918</v>
+      </c>
+      <c r="F8" s="12">
+        <v>43918</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -719,16 +742,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43917</v>
+      </c>
+      <c r="F9" s="12">
+        <v>43917</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -737,22 +764,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -760,41 +791,53 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="12">
+        <v>43914</v>
+      </c>
+      <c r="F12" s="12">
+        <v>43914</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -806,18 +849,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43912</v>
+      </c>
+      <c r="F14" s="12">
+        <v>43912</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -825,24 +874,70 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43913</v>
+      </c>
+      <c r="F15" s="13">
+        <v>43913</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43913</v>
+      </c>
+      <c r="F16" s="13">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43915</v>
+      </c>
+      <c r="F17" s="13">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -11,12 +11,15 @@
     <sheet name="BE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UI!$C$1:$C$18</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Not able to upload .jpeg</t>
   </si>
@@ -102,9 +105,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>When the directory/date folder entered is not available, there is no pop up/error saying "no such directory exists"</t>
-  </si>
-  <si>
     <t>shiva</t>
   </si>
   <si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>Progress bar</t>
-  </si>
-  <si>
-    <t>When files are &gt;1000, webserver is not responding</t>
   </si>
   <si>
     <t>Failed</t>
@@ -135,6 +129,16 @@
   </si>
   <si>
     <t>Change backgroud to faceDetection, PhotoGrapher and Athelte pages</t>
+  </si>
+  <si>
+    <t>When files are &gt;1000(N), webserver is not responding</t>
+  </si>
+  <si>
+    <t>Progress bar for data uploading</t>
+  </si>
+  <si>
+    <t>When the directory/date folder entered is not available, there is no pop up/error saying "no such directory exists"
+*Only list folder which are there in server</t>
   </si>
 </sst>
 </file>
@@ -532,10 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -594,10 +599,10 @@
         <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -641,13 +646,13 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -669,10 +674,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -694,7 +699,7 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -759,7 +764,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -783,10 +788,10 @@
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -811,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>4</v>
@@ -837,19 +842,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
@@ -866,7 +871,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -874,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
@@ -889,7 +894,7 @@
         <v>43913</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -897,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -917,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>4</v>
@@ -937,10 +942,24 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C18">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="In Progress"/>
+        <filter val="OnHold"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Not able to upload .jpeg</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>After confirmation of the email, change the message from confirm email to confirmed email address</t>
+  </si>
+  <si>
+    <t>Add search progress bar</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,6 +969,22 @@
       </c>
       <c r="F18" s="12">
         <v>43923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
